--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\NextJS\landings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04FECDB8-C745-4908-88E6-3472B58B6DDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6DB2C8-8CA2-4269-9AA4-A1B47285F391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="465" windowWidth="31455" windowHeight="19380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6465" yWindow="420" windowWidth="34785" windowHeight="18510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manufacturer" sheetId="1" r:id="rId1"/>
-    <sheet name="type" sheetId="3" r:id="rId2"/>
-    <sheet name="model" sheetId="5" r:id="rId3"/>
-    <sheet name="reference" sheetId="2" r:id="rId4"/>
-    <sheet name="country" sheetId="6" r:id="rId5"/>
+    <sheet name="manufacturer_country" sheetId="7" r:id="rId2"/>
+    <sheet name="type" sheetId="3" r:id="rId3"/>
+    <sheet name="model" sheetId="5" r:id="rId4"/>
+    <sheet name="reference" sheetId="2" r:id="rId5"/>
+    <sheet name="country" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="253">
   <si>
     <t>Name</t>
   </si>
@@ -172,9 +173,6 @@
     <t>countryID</t>
   </si>
   <si>
-    <t>Foreign key to country table</t>
-  </si>
-  <si>
     <t>Original name</t>
   </si>
   <si>
@@ -242,9 +240,6 @@
   </si>
   <si>
     <t>This table references the following parent tables:</t>
-  </si>
-  <si>
-    <t>country - Referenced via countryID → country.id (Many-to-One)</t>
   </si>
   <si>
     <t>Establishes the country where the manufacturer is located</t>
@@ -817,12 +812,24 @@
       <t>Δεν υπάρχουν κάποια στον manufacturer</t>
     </r>
   </si>
+  <si>
+    <t>ΑΝΤΙΚΑΤΑΣΤΑΘΗΚΕ από τον πίνακα manufacturer_table</t>
+  </si>
+  <si>
+    <t>manufacturerID</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Να μπει αφού μπει και ο REF πίνακας</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,6 +885,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -905,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -923,6 +939,11 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -984,7 +1005,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1036,7 +1057,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1240,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,7 +1272,7 @@
     <col min="3" max="3" width="38.85546875" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="7" max="7" width="75.140625" customWidth="1"/>
+    <col min="7" max="7" width="84.28515625" customWidth="1"/>
     <col min="8" max="8" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1260,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1283,13 +1304,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -1302,8 +1323,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>237</v>
+      <c r="A3" s="9" t="s">
+        <v>235</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
@@ -1325,8 +1346,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>50</v>
+      <c r="A4" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>16</v>
@@ -1349,16 +1370,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -1372,16 +1393,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
@@ -1394,7 +1415,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1404,7 +1425,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
@@ -1412,13 +1433,13 @@
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>47</v>
+      <c r="G7" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -1441,7 +1462,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>25</v>
@@ -1464,7 +1485,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>27</v>
@@ -1482,12 +1503,12 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
@@ -1510,7 +1531,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>31</v>
@@ -1533,7 +1554,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
@@ -1556,7 +1577,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>35</v>
@@ -1579,7 +1600,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>37</v>
@@ -1602,7 +1623,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>39</v>
@@ -1625,7 +1646,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>41</v>
@@ -1648,7 +1669,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>43</v>
@@ -1671,13 +1692,13 @@
     </row>
     <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>29</v>
@@ -1689,12 +1710,12 @@
         <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>45</v>
@@ -1703,7 +1724,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>14</v>
@@ -1712,7 +1733,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1725,7 +1746,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1747,15 +1768,15 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
@@ -1763,106 +1784,105 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1872,10 +1892,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959B62C9-92B5-4D65-A2A5-99B5C23AF4CA}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1895,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1918,13 +2023,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -1933,15 +2038,15 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1956,21 +2061,21 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1979,15 +2084,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2002,15 +2107,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -2025,21 +2130,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -2048,21 +2153,21 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -2071,21 +2176,21 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2094,15 +2199,15 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -2117,15 +2222,15 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -2140,15 +2245,15 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -2163,15 +2268,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -2186,12 +2291,12 @@
         <v>10</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2202,7 +2307,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2213,110 +2318,110 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
         <v>132</v>
-      </c>
-      <c r="C20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G26" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>6</v>
@@ -2326,15 +2431,15 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +2447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -2366,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2389,13 +2494,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -2404,15 +2509,15 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -2427,15 +2532,15 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -2450,21 +2555,21 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
@@ -2473,21 +2578,21 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -2496,21 +2601,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -2519,15 +2624,15 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -2542,15 +2647,15 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -2565,15 +2670,15 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -2588,15 +2693,15 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -2611,15 +2716,15 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -2634,15 +2739,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -2657,15 +2762,15 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -2680,15 +2785,15 @@
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -2703,15 +2808,15 @@
         <v>10</v>
       </c>
       <c r="G15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -2723,15 +2828,15 @@
         <v>10</v>
       </c>
       <c r="G16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -2746,18 +2851,18 @@
         <v>10</v>
       </c>
       <c r="G17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -2769,15 +2874,15 @@
         <v>10</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -2792,21 +2897,21 @@
         <v>10</v>
       </c>
       <c r="G19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -2815,12 +2920,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2831,7 +2936,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2842,110 +2947,110 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G32" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
         <v>69</v>
-      </c>
-      <c r="B38" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2953,7 +3058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -2976,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -2999,13 +3104,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3016,10 +3121,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -3034,15 +3139,15 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -3057,15 +3162,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -3080,15 +3185,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -3103,15 +3208,15 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -3126,15 +3231,15 @@
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -3149,21 +3254,21 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -3172,21 +3277,21 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -3195,21 +3300,21 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -3218,21 +3323,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -3241,21 +3346,21 @@
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -3264,117 +3369,117 @@
         <v>10</v>
       </c>
       <c r="G13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -3383,23 +3488,23 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
         <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -3407,39 +3512,39 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3447,12 +3552,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3468,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -3494,7 +3599,7 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -3505,10 +3610,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -3523,15 +3628,15 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -3547,11 +3652,11 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>199</v>
+      <c r="A5" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -3568,10 +3673,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -3588,10 +3693,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -3608,16 +3713,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -3628,16 +3733,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -3648,10 +3753,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -3668,16 +3773,16 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -3688,16 +3793,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -3708,16 +3813,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
         <v>213</v>
-      </c>
-      <c r="B13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>215</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -3728,16 +3833,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -3748,16 +3853,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -3768,42 +3873,42 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3811,44 +3916,44 @@
         <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/Data Dictionary.xlsx
+++ b/Data Dictionary.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\NextJS\landings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6DB2C8-8CA2-4269-9AA4-A1B47285F391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEF982C-1C8B-48DA-BE9E-193A8E75574F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6465" yWindow="420" windowWidth="34785" windowHeight="18510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="600" windowWidth="26070" windowHeight="18675" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="manufacturer" sheetId="1" r:id="rId1"/>
     <sheet name="manufacturer_country" sheetId="7" r:id="rId2"/>
-    <sheet name="type" sheetId="3" r:id="rId3"/>
-    <sheet name="model" sheetId="5" r:id="rId4"/>
-    <sheet name="reference" sheetId="2" r:id="rId5"/>
-    <sheet name="country" sheetId="6" r:id="rId6"/>
+    <sheet name="country" sheetId="6" r:id="rId3"/>
+    <sheet name="type" sheetId="3" r:id="rId4"/>
+    <sheet name="model" sheetId="5" r:id="rId5"/>
+    <sheet name="reference" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="254">
   <si>
     <t>Name</t>
   </si>
@@ -819,10 +819,13 @@
     <t>manufacturerID</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>Να μπει αφού μπει και ο REF πίνακας</t>
+  </si>
+  <si>
+    <t>manufacturer(id)</t>
+  </si>
+  <si>
+    <t>ISO_3166</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1848,7 +1851,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="G32" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
@@ -1896,7 +1899,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1963,12 +1966,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>251</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1977,6 +1980,415 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="1"/>
+    <col min="7" max="7" width="82.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>255</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>214</v>
+      </c>
+      <c r="G26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G35"/>
   <sheetViews>
@@ -2447,7 +2859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
@@ -3058,7 +3470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
@@ -3550,413 +3962,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="7" max="7" width="82.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>255</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" t="s">
-        <v>203</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>212</v>
-      </c>
-      <c r="B14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>214</v>
-      </c>
-      <c r="G26" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>215</v>
-      </c>
-      <c r="G27" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>216</v>
-      </c>
-      <c r="G28" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>217</v>
-      </c>
-      <c r="G29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>